--- a/docs/pages/2023-08-02-Ed-Python/tuber_50.xlsx
+++ b/docs/pages/2023-08-02-Ed-Python/tuber_50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\git-harper-data-science\website\pages\2023-08-02-Ed-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EBF384-82D0-4728-95CE-7ACB0B66A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AAD36D-D2FB-40BE-86EA-A52438E9507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{71528C17-BE76-4AAE-AE3E-1E46CD388EBC}"/>
   </bookViews>
@@ -334,42 +334,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -724,14 +689,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CD6129-6804-4A9A-933A-6C0831F8304E}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,33 +1724,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C16">
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C21">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C51">
-    <cfRule type="expression" dxfId="8" priority="5">
-      <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D16">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D21">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D51">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="A2:D51">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6756,27 +6700,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:G51">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:O16">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:O21">
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:AC51">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:AC21 H7:H11 H17:H21 I17:J51 H47:H51">
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>MOD(ROW()-7,10)+1&lt;=5</formula>
     </cfRule>
   </conditionalFormatting>
